--- a/fcc_betriebs_tgb/Vorlagen_Info/django_prototyp.xlsx
+++ b/fcc_betriebs_tgb/Vorlagen_Info/django_prototyp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcces-my.sharepoint.com/personal/christian_brandstaetter_fcc-group_at/Documents/Desktop/Betriebstagebücher_Him/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcces-my.sharepoint.com/personal/christian_brandstaetter_fcc-group_at/Documents/wd/djangodemo/fcc_betriebs_tgb/Vorlagen_Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{B8C1FF57-EA1C-422A-A124-A1E5E7DF220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{355A5CB0-BA7F-4111-895C-E04B991B1A17}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{B8C1FF57-EA1C-422A-A124-A1E5E7DF220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C20C9B-553A-4F80-A6E8-68252ADDDF04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81036368-7CC0-4731-B736-0EE940AF63FD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81036368-7CC0-4731-B736-0EE940AF63FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Django App Himberg</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>als Vorlage zu betrachten</t>
+  </si>
+  <si>
+    <t>Umgesetzt</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -573,9 +579,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1C4442-4C1C-4DFD-90E5-2BD34971F390}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -585,7 +593,7 @@
     <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -598,8 +606,11 @@
       <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="57" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -613,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -627,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -640,8 +651,11 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -655,7 +669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -669,7 +683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -683,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -694,10 +708,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -705,28 +719,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>34</v>
       </c>
